--- a/Task1/Тестовая документация.xlsx
+++ b/Task1/Тестовая документация.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="108">
   <si>
     <t>№</t>
   </si>
@@ -347,6 +347,9 @@
   </si>
   <si>
     <t>Предусловия/Окружение</t>
+  </si>
+  <si>
+    <t>В задании прописано о том, что проверки должны проводится для неавторизованного пользователя. Допускается ли использование авторизованного пользователя для создания внешних условий? Если да, то к тест-комплекту можно добавить следующий тест-кейс.</t>
   </si>
 </sst>
 </file>
@@ -484,7 +487,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -592,6 +595,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -600,7 +640,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -621,9 +661,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -680,63 +717,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -750,25 +730,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -776,6 +738,105 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1316,11 +1377,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1354,150 +1415,150 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="43.2" customHeight="1">
-      <c r="A2" s="28">
+      <c r="A2" s="40">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="25" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="25" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="48.6" customHeight="1">
-      <c r="A3" s="28"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="46" t="s">
+      <c r="A3" s="40"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26" t="s">
+      <c r="E3" s="25"/>
+      <c r="F3" s="25" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="26.4">
-      <c r="A4" s="28"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="26" t="s">
+      <c r="A4" s="40"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26" t="s">
+      <c r="E4" s="25"/>
+      <c r="F4" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="79.2">
-      <c r="A5" s="28"/>
-      <c r="B5" s="30"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="25" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="25" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="28"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="28" t="s">
+      <c r="A6" s="40"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="28"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="28"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-    </row>
-    <row r="9" spans="1:6" s="19" customFormat="1" ht="15" thickBot="1">
-      <c r="A9" s="53"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-    </row>
-    <row r="10" spans="1:6" s="51" customFormat="1" ht="54.6" customHeight="1" thickTop="1">
-      <c r="A10" s="55">
+      <c r="A8" s="40"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+    </row>
+    <row r="9" spans="1:6" s="18" customFormat="1" ht="15" thickBot="1">
+      <c r="A9" s="41"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+    </row>
+    <row r="10" spans="1:6" s="31" customFormat="1" ht="54.6" customHeight="1" thickTop="1">
+      <c r="A10" s="39">
         <v>2</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="48" t="s">
+      <c r="F10" s="28" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="26.4">
-      <c r="A11" s="28"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="46" t="s">
+      <c r="A11" s="40"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26" t="s">
+      <c r="E11" s="25"/>
+      <c r="F11" s="25" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="39" customHeight="1">
-      <c r="A12" s="28"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="26" t="s">
+      <c r="A12" s="40"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26" t="s">
+      <c r="E12" s="25"/>
+      <c r="F12" s="25" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="39.6">
-      <c r="A13" s="28"/>
-      <c r="B13" s="30"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="3" t="s">
         <v>5</v>
       </c>
@@ -1505,99 +1566,99 @@
         <v>18</v>
       </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="25" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="79.2">
-      <c r="A14" s="28"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="28" t="s">
+      <c r="A14" s="40"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="25" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="25" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="28"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="28"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1">
-      <c r="A17" s="53"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
     </row>
     <row r="18" spans="1:6" ht="46.8" customHeight="1" thickTop="1">
-      <c r="A18" s="55">
+      <c r="A18" s="39">
         <v>3</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="52" t="s">
+      <c r="C18" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="48" t="s">
+      <c r="D18" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="48" t="s">
+      <c r="F18" s="28" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="26.4">
-      <c r="A19" s="28"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="46" t="s">
+      <c r="A19" s="40"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26" t="s">
+      <c r="E19" s="25"/>
+      <c r="F19" s="25" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="40.799999999999997" customHeight="1">
-      <c r="A20" s="28"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="26" t="s">
+      <c r="A20" s="40"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26" t="s">
+      <c r="E20" s="25"/>
+      <c r="F20" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="39.6">
-      <c r="A21" s="28"/>
-      <c r="B21" s="30"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1605,201 +1666,201 @@
         <v>22</v>
       </c>
       <c r="E21" s="7"/>
-      <c r="F21" s="26"/>
+      <c r="F21" s="25"/>
     </row>
     <row r="22" spans="1:6" ht="79.2">
-      <c r="A22" s="28"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="28" t="s">
+      <c r="A22" s="40"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="25" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="25" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="28"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="28"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1">
-      <c r="A25" s="53"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
     </row>
     <row r="26" spans="1:6" ht="48" customHeight="1" thickTop="1">
-      <c r="A26" s="55">
+      <c r="A26" s="39">
         <v>4</v>
       </c>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="52" t="s">
+      <c r="C26" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="48" t="s">
+      <c r="D26" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="48" t="s">
+      <c r="F26" s="28" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="26.4">
-      <c r="A27" s="28"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="46" t="s">
+      <c r="A27" s="40"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26" t="s">
+      <c r="E27" s="25"/>
+      <c r="F27" s="25" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="38.4" customHeight="1">
-      <c r="A28" s="28"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="26" t="s">
+      <c r="A28" s="40"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26" t="s">
+      <c r="E28" s="25"/>
+      <c r="F28" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="79.2">
-      <c r="A29" s="28"/>
-      <c r="B29" s="30"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="43"/>
       <c r="C29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="25" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="26" t="s">
+      <c r="F29" s="25" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="39.6">
-      <c r="A30" s="28"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="28" t="s">
+      <c r="A30" s="40"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26" t="s">
+      <c r="E30" s="25"/>
+      <c r="F30" s="25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="26.4">
-      <c r="A31" s="28"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="26" t="s">
+      <c r="A31" s="40"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26" t="s">
+      <c r="E31" s="25"/>
+      <c r="F31" s="25" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="28"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
     </row>
     <row r="33" spans="1:6" ht="15" thickBot="1">
-      <c r="A33" s="53"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
     </row>
     <row r="34" spans="1:6" ht="49.8" customHeight="1" thickTop="1">
-      <c r="A34" s="55">
+      <c r="A34" s="39">
         <v>5</v>
       </c>
-      <c r="B34" s="59" t="s">
+      <c r="B34" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="52" t="s">
+      <c r="C34" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="48" t="s">
+      <c r="D34" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="27" t="s">
+      <c r="E34" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F34" s="48" t="s">
+      <c r="F34" s="28" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="26.4">
-      <c r="A35" s="28"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="46" t="s">
+      <c r="A35" s="40"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26" t="s">
+      <c r="E35" s="25"/>
+      <c r="F35" s="25" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="39" customHeight="1">
-      <c r="A36" s="28"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="26" t="s">
+      <c r="A36" s="40"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26" t="s">
+      <c r="E36" s="25"/>
+      <c r="F36" s="25" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="39.6">
-      <c r="A37" s="28"/>
-      <c r="B37" s="30"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="43"/>
       <c r="C37" s="3" t="s">
         <v>5</v>
       </c>
@@ -1807,211 +1868,211 @@
         <v>18</v>
       </c>
       <c r="E37" s="7"/>
-      <c r="F37" s="26" t="s">
+      <c r="F37" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="79.2">
-      <c r="A38" s="28"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="28" t="s">
+      <c r="A38" s="40"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="26" t="s">
+      <c r="D38" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="26" t="s">
+      <c r="F38" s="25" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="39.6">
-      <c r="A39" s="28"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="26" t="s">
+      <c r="A39" s="40"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26" t="s">
+      <c r="E39" s="25"/>
+      <c r="F39" s="25" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="26.4">
-      <c r="A40" s="28"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="26" t="s">
+      <c r="A40" s="40"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26" t="s">
+      <c r="E40" s="25"/>
+      <c r="F40" s="25" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" thickBot="1">
-      <c r="A41" s="53"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
     </row>
     <row r="42" spans="1:6" ht="45.6" customHeight="1" thickTop="1">
-      <c r="A42" s="55">
+      <c r="A42" s="39">
         <v>6</v>
       </c>
-      <c r="B42" s="59" t="s">
+      <c r="B42" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="52" t="s">
+      <c r="C42" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="48" t="s">
+      <c r="D42" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="27" t="s">
+      <c r="E42" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F42" s="48" t="s">
+      <c r="F42" s="28" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="26.4">
-      <c r="A43" s="28"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="46" t="s">
+      <c r="A43" s="40"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="26" t="s">
+      <c r="D43" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26" t="s">
+      <c r="E43" s="25"/>
+      <c r="F43" s="25" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="43.2" customHeight="1">
-      <c r="A44" s="28"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="26" t="s">
+      <c r="A44" s="40"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26" t="s">
+      <c r="E44" s="25"/>
+      <c r="F44" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="79.2">
-      <c r="A45" s="28"/>
-      <c r="B45" s="30"/>
+      <c r="A45" s="40"/>
+      <c r="B45" s="43"/>
       <c r="C45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="26" t="s">
+      <c r="D45" s="25" t="s">
         <v>12</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F45" s="26" t="s">
+      <c r="F45" s="25" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="39.6">
-      <c r="A46" s="28"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="28" t="s">
+      <c r="A46" s="40"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="D46" s="25" t="s">
         <v>45</v>
       </c>
       <c r="E46" s="5"/>
-      <c r="F46" s="26" t="s">
+      <c r="F46" s="25" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="26.4">
-      <c r="A47" s="28"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="26" t="s">
+      <c r="A47" s="40"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26" t="s">
+      <c r="E47" s="25"/>
+      <c r="F47" s="25" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="28"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
+      <c r="A48" s="40"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
     </row>
     <row r="49" spans="1:6" ht="15" thickBot="1">
-      <c r="A49" s="53"/>
-      <c r="B49" s="58"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
     </row>
     <row r="50" spans="1:6" ht="50.4" customHeight="1" thickTop="1">
-      <c r="A50" s="55">
+      <c r="A50" s="39">
         <v>7</v>
       </c>
-      <c r="B50" s="59" t="s">
+      <c r="B50" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="52" t="s">
+      <c r="C50" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="48" t="s">
+      <c r="D50" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="27" t="s">
+      <c r="E50" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F50" s="48" t="s">
+      <c r="F50" s="28" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="26.4">
-      <c r="A51" s="28"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="46" t="s">
+      <c r="A51" s="40"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D51" s="26" t="s">
+      <c r="D51" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26" t="s">
+      <c r="E51" s="25"/>
+      <c r="F51" s="25" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="42.6" customHeight="1">
-      <c r="A52" s="28"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="26" t="s">
+      <c r="A52" s="40"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26" t="s">
+      <c r="E52" s="25"/>
+      <c r="F52" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="39.6">
-      <c r="A53" s="28"/>
-      <c r="B53" s="30"/>
+      <c r="A53" s="40"/>
+      <c r="B53" s="43"/>
       <c r="C53" s="3" t="s">
         <v>5</v>
       </c>
@@ -2019,114 +2080,114 @@
         <v>22</v>
       </c>
       <c r="E53" s="7"/>
-      <c r="F53" s="26"/>
+      <c r="F53" s="25"/>
     </row>
     <row r="54" spans="1:6" ht="79.2">
-      <c r="A54" s="28"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="28" t="s">
+      <c r="A54" s="40"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D54" s="26" t="s">
+      <c r="D54" s="25" t="s">
         <v>17</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F54" s="26" t="s">
+      <c r="F54" s="25" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="39.6">
-      <c r="A55" s="28"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="26" t="s">
+      <c r="A55" s="40"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26" t="s">
+      <c r="E55" s="25"/>
+      <c r="F55" s="25" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="28"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
+      <c r="A56" s="40"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
     </row>
     <row r="57" spans="1:6" ht="15" thickBot="1">
-      <c r="A57" s="53"/>
-      <c r="B57" s="58"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="54"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
     </row>
     <row r="58" spans="1:6" ht="50.4" customHeight="1" thickTop="1">
-      <c r="A58" s="55">
+      <c r="A58" s="39">
         <v>8</v>
       </c>
-      <c r="B58" s="59" t="s">
+      <c r="B58" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C58" s="52" t="s">
+      <c r="C58" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="48" t="s">
+      <c r="D58" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="27" t="s">
+      <c r="E58" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F58" s="48" t="s">
+      <c r="F58" s="28" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="26.4">
-      <c r="A59" s="28"/>
-      <c r="B59" s="30"/>
-      <c r="C59" s="46" t="s">
+      <c r="A59" s="40"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D59" s="26" t="s">
+      <c r="D59" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26" t="s">
+      <c r="E59" s="25"/>
+      <c r="F59" s="25" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="46.2" customHeight="1">
-      <c r="A60" s="28"/>
-      <c r="B60" s="30"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="26" t="s">
+      <c r="A60" s="40"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26" t="s">
+      <c r="E60" s="25"/>
+      <c r="F60" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="26.4">
-      <c r="A61" s="28"/>
-      <c r="B61" s="30"/>
+      <c r="A61" s="40"/>
+      <c r="B61" s="43"/>
       <c r="C61" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D61" s="13" t="s">
+      <c r="D61" s="12" t="s">
         <v>68</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
     </row>
     <row r="62" spans="1:6" ht="39.6">
-      <c r="A62" s="28"/>
-      <c r="B62" s="30"/>
-      <c r="C62" s="28" t="s">
+      <c r="A62" s="40"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="40" t="s">
         <v>6</v>
       </c>
       <c r="D62" s="6" t="s">
@@ -2136,380 +2197,395 @@
       <c r="F62" s="7"/>
     </row>
     <row r="63" spans="1:6" ht="79.2">
-      <c r="A63" s="28"/>
-      <c r="B63" s="30"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="26" t="s">
+      <c r="A63" s="40"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="25" t="s">
         <v>70</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F63" s="26" t="s">
+      <c r="F63" s="25" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="52.8">
-      <c r="A64" s="28"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="26" t="s">
+      <c r="A64" s="40"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26" t="s">
+      <c r="E64" s="25"/>
+      <c r="F64" s="25" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15" thickBot="1">
-      <c r="A65" s="53"/>
-      <c r="B65" s="58"/>
-      <c r="C65" s="53"/>
-      <c r="D65" s="60"/>
-      <c r="E65" s="60"/>
-      <c r="F65" s="60"/>
-    </row>
-    <row r="66" spans="1:6" ht="39.6" customHeight="1" thickTop="1">
-      <c r="A66" s="55">
+      <c r="A65" s="41"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
+    </row>
+    <row r="66" spans="1:6" ht="49.2" customHeight="1" thickTop="1">
+      <c r="A66" s="39">
         <v>9</v>
       </c>
-      <c r="B66" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="C66" s="52" t="s">
+      <c r="B66" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C66" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D66" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="E66" s="27"/>
-      <c r="F66" s="48" t="s">
+      <c r="D66" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F66" s="28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="129.6" customHeight="1">
-      <c r="A67" s="28"/>
-      <c r="B67" s="30"/>
-      <c r="C67" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="D67" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="79.2" customHeight="1">
-      <c r="A68" s="28"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="47"/>
-      <c r="D68" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="92.4">
-      <c r="A69" s="28"/>
-      <c r="B69" s="30"/>
+    <row r="67" spans="1:6" ht="49.8" customHeight="1">
+      <c r="A67" s="40"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="35.4" customHeight="1">
+      <c r="A68" s="40"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="26.4">
+      <c r="A69" s="40"/>
+      <c r="B69" s="46"/>
       <c r="C69" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D69" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="E69" s="5" t="s">
+      <c r="D69" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E69" s="7"/>
+      <c r="F69" s="4"/>
+    </row>
+    <row r="70" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A70" s="40"/>
+      <c r="B70" s="46"/>
+      <c r="C70" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E70" s="7"/>
+      <c r="F70" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="79.2">
+      <c r="A71" s="40"/>
+      <c r="B71" s="46"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E71" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F69" s="26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="28"/>
-      <c r="B70" s="30"/>
-      <c r="C70" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="28"/>
-      <c r="B71" s="30"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="26"/>
+      <c r="F71" s="25" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="28"/>
-      <c r="B72" s="30"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="26"/>
+      <c r="A72" s="40"/>
+      <c r="B72" s="46"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
     </row>
     <row r="73" spans="1:6" ht="15" thickBot="1">
-      <c r="A73" s="53"/>
-      <c r="B73" s="58"/>
-      <c r="C73" s="53"/>
-      <c r="D73" s="54"/>
-      <c r="E73" s="54"/>
-      <c r="F73" s="54"/>
+      <c r="A73" s="41"/>
+      <c r="B73" s="47"/>
+      <c r="C73" s="41"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="33"/>
     </row>
     <row r="74" spans="1:6" ht="49.2" customHeight="1" thickTop="1">
-      <c r="A74" s="55">
+      <c r="A74" s="63">
         <v>10</v>
       </c>
-      <c r="B74" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="C74" s="52" t="s">
+      <c r="B74" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="C74" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="D74" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E74" s="27" t="s">
+      <c r="D74" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E74" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F74" s="48" t="s">
+      <c r="F74" s="29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="26.4">
-      <c r="A75" s="28"/>
-      <c r="B75" s="29"/>
-      <c r="C75" s="46" t="s">
+    <row r="75" spans="1:6" ht="39.6">
+      <c r="A75" s="40"/>
+      <c r="B75" s="46"/>
+      <c r="C75" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D75" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4" t="s">
-        <v>33</v>
+      <c r="D75" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E75" s="27"/>
+      <c r="F75" s="27" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="41.4" customHeight="1">
-      <c r="A76" s="28"/>
-      <c r="B76" s="29"/>
-      <c r="C76" s="47"/>
-      <c r="D76" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="26.4">
-      <c r="A77" s="28"/>
-      <c r="B77" s="29"/>
+      <c r="A76" s="40"/>
+      <c r="B76" s="46"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="52.8">
+      <c r="A77" s="40"/>
+      <c r="B77" s="46"/>
       <c r="C77" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D77" s="4" t="s">
-        <v>78</v>
+      <c r="D77" s="27" t="s">
+        <v>96</v>
       </c>
       <c r="E77" s="7"/>
-      <c r="F77" s="4"/>
-    </row>
-    <row r="78" spans="1:6" ht="52.8">
-      <c r="A78" s="28"/>
-      <c r="B78" s="29"/>
-      <c r="C78" s="28" t="s">
+      <c r="F77" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="39.6">
+      <c r="A78" s="40"/>
+      <c r="B78" s="46"/>
+      <c r="C78" s="40" t="s">
         <v>6</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E78" s="7"/>
       <c r="F78" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="79.2">
-      <c r="A79" s="28"/>
-      <c r="B79" s="29"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="E79" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="40"/>
+      <c r="B79" s="46"/>
+      <c r="C79" s="40"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="27"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="40"/>
+      <c r="B80" s="46"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
+    </row>
+    <row r="81" spans="1:6" s="18" customFormat="1" ht="15" thickBot="1">
+      <c r="A81" s="41"/>
+      <c r="B81" s="47"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="33"/>
+    </row>
+    <row r="82" spans="1:6" ht="15" thickTop="1"/>
+    <row r="84" spans="1:6" ht="15" thickBot="1"/>
+    <row r="85" spans="1:6" ht="36" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A85" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="B85" s="68"/>
+      <c r="C85" s="68"/>
+      <c r="D85" s="68"/>
+      <c r="E85" s="68"/>
+      <c r="F85" s="69"/>
+    </row>
+    <row r="86" spans="1:6" ht="40.200000000000003" thickTop="1">
+      <c r="A86" s="63">
+        <v>11</v>
+      </c>
+      <c r="B86" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="C86" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E86" s="30"/>
+      <c r="F86" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="39.6">
+      <c r="A87" s="40"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D87" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E87" s="27"/>
+      <c r="F87" s="27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="112.2" customHeight="1">
+      <c r="A88" s="40"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="38"/>
+      <c r="D88" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E88" s="27"/>
+      <c r="F88" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="92.4">
+      <c r="A89" s="40"/>
+      <c r="B89" s="43"/>
+      <c r="C89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E89" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F79" s="26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="28"/>
-      <c r="B80" s="29"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="26"/>
-      <c r="F80" s="26"/>
-    </row>
-    <row r="81" spans="1:6" s="19" customFormat="1" ht="15" thickBot="1">
-      <c r="A81" s="53"/>
-      <c r="B81" s="57"/>
-      <c r="C81" s="53"/>
-      <c r="D81" s="62"/>
-      <c r="E81" s="62"/>
-      <c r="F81" s="54"/>
-    </row>
-    <row r="82" spans="1:6" ht="58.2" thickTop="1">
-      <c r="A82" s="55">
-        <v>11</v>
-      </c>
-      <c r="B82" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="C82" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D82" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="E82" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="F82" s="48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="39.6">
-      <c r="A83" s="28"/>
-      <c r="B83" s="29"/>
-      <c r="C83" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="79.2">
-      <c r="A84" s="28"/>
-      <c r="B84" s="29"/>
-      <c r="C84" s="47"/>
-      <c r="D84" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="52.8">
-      <c r="A85" s="28"/>
-      <c r="B85" s="29"/>
-      <c r="C85" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E85" s="7"/>
-      <c r="F85" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="39.6">
-      <c r="A86" s="28"/>
-      <c r="B86" s="29"/>
-      <c r="C86" s="28" t="s">
+      <c r="F89" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="40"/>
+      <c r="B90" s="43"/>
+      <c r="C90" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D86" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E86" s="7"/>
-      <c r="F86" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="28"/>
-      <c r="B87" s="29"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="8"/>
-      <c r="F87" s="8"/>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="28"/>
-      <c r="B88" s="29"/>
-      <c r="C88" s="28"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="28"/>
-      <c r="B89" s="29"/>
-      <c r="C89" s="28"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-    </row>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="40"/>
+      <c r="B91" s="43"/>
+      <c r="C91" s="40"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="27"/>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="40"/>
+      <c r="B92" s="43"/>
+      <c r="C92" s="40"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="27"/>
+    </row>
+    <row r="93" spans="1:6" ht="15" thickBot="1">
+      <c r="A93" s="41"/>
+      <c r="B93" s="44"/>
+      <c r="C93" s="41"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="33"/>
+      <c r="F93" s="33"/>
+    </row>
+    <row r="94" spans="1:6" ht="15" thickTop="1"/>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="A58:A65"/>
-    <mergeCell ref="B58:B65"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C35:C36"/>
+  <mergeCells count="45">
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="A86:A93"/>
+    <mergeCell ref="B86:B93"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="C38:C41"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="C51:C52"/>
     <mergeCell ref="C59:C60"/>
     <mergeCell ref="A42:A49"/>
     <mergeCell ref="B42:B49"/>
     <mergeCell ref="C46:C49"/>
+    <mergeCell ref="A50:A57"/>
+    <mergeCell ref="B50:B57"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="A58:A65"/>
+    <mergeCell ref="B58:B65"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="A66:A73"/>
+    <mergeCell ref="B66:B73"/>
+    <mergeCell ref="C70:C73"/>
     <mergeCell ref="A74:A81"/>
     <mergeCell ref="B74:B81"/>
     <mergeCell ref="C78:C81"/>
-    <mergeCell ref="A50:A57"/>
-    <mergeCell ref="B50:B57"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="A66:A73"/>
-    <mergeCell ref="B66:B73"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="A26:A33"/>
-    <mergeCell ref="B26:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="A34:A41"/>
-    <mergeCell ref="B34:B41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="A82:A89"/>
-    <mergeCell ref="B82:B89"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="C22:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -2526,23 +2602,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.21875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="28.5546875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.21875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.5546875" style="8" customWidth="1"/>
     <col min="4" max="4" width="46.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2550,7 +2626,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2562,7 +2638,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2574,7 +2650,7 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2586,7 +2662,7 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2598,7 +2674,7 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>75</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2610,7 +2686,7 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>75</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2649,166 +2725,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="25.8" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="21" t="s">
+      <c r="C1" s="55"/>
+      <c r="D1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="18"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="17"/>
     </row>
     <row r="2" spans="1:13" ht="33.6" customHeight="1">
-      <c r="A2" s="31">
+      <c r="A2" s="51">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="36" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="J2" s="43" t="s">
+      <c r="J2" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="18"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="17"/>
     </row>
     <row r="3" spans="1:13" ht="41.4">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="25" t="s">
+      <c r="A3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
     </row>
     <row r="4" spans="1:13" ht="28.2" customHeight="1">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="25" t="s">
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
     </row>
     <row r="5" spans="1:13" ht="69.599999999999994" customHeight="1">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="21" t="s">
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
     </row>
     <row r="6" spans="1:13" ht="75.599999999999994" customHeight="1">
-      <c r="A6" s="32"/>
-      <c r="B6" s="21" t="s">
+      <c r="A6" s="52"/>
+      <c r="B6" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="D8" s="17"/>
+      <c r="D8" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="8">
